--- a/biology/Zoologie/Epibaion/Epibaion.xlsx
+++ b/biology/Zoologie/Epibaion/Epibaion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,16 +490,18 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Epibaion est un genre de traces fossiles découvertes dans l'Édiacarien résultant de l'activité en fond de mer d’animaux appartenant à l'embranchement éteint des proarticulés, il y a environ entre 575 et 540 Ma (millions d'années). 
 Ces traces et empreintes de corps sont fréquemment organisées en chaîne faisant penser à des traces successives, parfois en partie superposées, de « broutage » ou de fouissage superficiel après un faible déplacement de l'animal. Quelques-unes de ces lignes de traces se terminent par le fossile de l'animal lui-même, ce qui a permis d'établir la relation entre le fossile et ses traces.
-Ces traces ont principalement été étudiées par le paléoichnologue russe  A.Y. Ivantsov[1],[2],[3].
-Il a ainsi établi les relations[3] entre :
+Ces traces ont principalement été étudiées par le paléoichnologue russe  A.Y. Ivantsov.
+Il a ainsi établi les relations entre :
 le proarticulé Yorgia waggoneri et ses traces nommées Epibaion waggoneris ;
 le proarticulé Dickinsonia costata et ses traces nommées Epibaion costatus ;
 cependant le type de l'ichnogenre, Epibaion axiferus, n'a pas encore pu être corrélé avec son animal.
-Par ailleurs, A. Y. Ivantsov considère également que l'ichnogenre de l'Édiacarien d'Australie Phyllozoon serait aussi une trace d'activité d'un proarticulé[2].
+Par ailleurs, A. Y. Ivantsov considère également que l'ichnogenre de l'Édiacarien d'Australie Phyllozoon serait aussi une trace d'activité d'un proarticulé.
 </t>
         </is>
       </c>
